--- a/biology/Botanique/Morimus_funereus/Morimus_funereus.xlsx
+++ b/biology/Botanique/Morimus_funereus/Morimus_funereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morimus funereus est une espèce d'insectes coléoptères de la famille des Cerambycidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonyme : Morimus asper funereus Mulsant, 1862. Pour certains auteurs, c'est une sous-espèce de Morimus asper, pourtant il ne semble pas former des hybrides naturels avec cette espèce dans les régions de contact.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce aptère de longicornes ressemble à la rare et protégée Rosalie des Alpes, mais est plus large et n'a que deux paires de taches noires sur les élytres.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe du Sud et de l'Est : de l'Italie à la Grèce, à la Roumanie et à l'Ukraine.
 </t>
@@ -604,7 +622,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes sont visibles de mai à juin, les larves creusent des galeries dans les vieux troncs de feuillus ou dans les souches (hêtres et chênes).
 Sur les autres projets Wikimedia :
